--- a/documents/Portfolio Projects (순서).xlsx
+++ b/documents/Portfolio Projects (순서).xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KYW\Desktop\Coding\Portfolio Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KYW\Desktop\Coding\PortfolioProjectReactNative\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78B7E58-85D7-4A16-8402-85C722AD4A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC00CE6-4341-4211-99E8-7CE5231B9D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C352CF2-2AC4-4B2E-834E-3E4E765A2568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,39 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
-  <si>
-    <t>Step 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>React Native</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flutter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring Boot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android Native</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Framework</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,58 +47,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Main Language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java or Kotlin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firebase (Firestore)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AWS (RDS or Dynamo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oracle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NoSQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL or NoSQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Platform</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,26 +67,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VS Code, Android Studio, Github, Figma, MS Word</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Development Steps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function Steps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,11 +123,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Minor Language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Insta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPRN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maybe?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React Native (Javascript)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flutter (Dart)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Boot (Java)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Native (Java or Kotlin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firebase (NoSQL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS (SQL or NoSQL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle (SQL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS Code, Android Studio, Github, Figma, MS Office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jupyter (Python) / GA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Development Step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function Step</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,17 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -443,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,6 +428,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,12 +438,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -821,271 +772,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAAA36F-8F1A-4CFD-8DE8-B24B5828FED6}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="6" width="22.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14"/>
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="10" customFormat="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14"/>
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="15"/>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="15"/>
-      <c r="B5" s="9" t="s">
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14"/>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14"/>
+      <c r="B11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="15"/>
-      <c r="B6" s="9" t="s">
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14"/>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14"/>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14"/>
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="15"/>
-      <c r="B7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="15"/>
-      <c r="B8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="15"/>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="15"/>
-      <c r="B10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="15"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="15"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="15"/>
-      <c r="B13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="15"/>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="15"/>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="18"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:A17"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A1:A15"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F11:F17"/>
-    <mergeCell ref="B11:E12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="B9:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>